--- a/project/GT New Horizons (含魔改汉化)/mod汉化进度.xlsx
+++ b/project/GT New Horizons (含魔改汉化)/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC5F2-D772-44D8-B8B5-A6EAE49706A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65170B67-ED1B-4D5E-A35C-B806C25D9675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="490">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1421,6 +1421,116 @@
   </si>
   <si>
     <t>Waila Plugins 0.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.7.0更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlling 1.0.0</t>
+  </si>
+  <si>
+    <t>Avaritia 1.15</t>
+  </si>
+  <si>
+    <t>Bartworks 0.3.22</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.10</t>
+  </si>
+  <si>
+    <t>Crops++ 1.3.2</t>
+  </si>
+  <si>
+    <t>Crop Load Core 0.1.3</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.12</t>
+  </si>
+  <si>
+    <t>GT Tweaker 1.7.1</t>
+  </si>
+  <si>
+    <t>IC2 Nei Plugin 1.2.2</t>
+  </si>
+  <si>
+    <t>Loot Games 1.0.17</t>
+  </si>
+  <si>
+    <t>SpecialMobs 3.3.2</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.6.10</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9i-GTNH</t>
+  </si>
+  <si>
+    <t>Bartworks 0.4.16</t>
+  </si>
+  <si>
+    <t>Blood Arsenal 1.2-8</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.14</t>
+  </si>
+  <si>
+    <t>Crops++ 1.3.5</t>
+  </si>
+  <si>
+    <t>Crop Load Core 0.1.4</t>
+  </si>
+  <si>
+    <t>Gt Nei ore plugin 1.0.7</t>
+  </si>
+  <si>
+    <t>GT-PlusPlus 1.7.02.99-pre</t>
+  </si>
+  <si>
+    <t>GT Scanner Mod 1.5.4</t>
+  </si>
+  <si>
+    <t>IFU 1.6</t>
+  </si>
+  <si>
+    <t>Loot Games 1.0.18</t>
+  </si>
+  <si>
+    <t>Not Enough Items 1.0.6-GTNH</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.6.11</t>
+  </si>
+  <si>
+    <t>Universal Singularities 8.5</t>
+  </si>
+  <si>
+    <t>Warp Theory 1.0k-Dev</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9k-GTNH</t>
+  </si>
+  <si>
+    <t>InGame Info XML 2.8.1.82</t>
+  </si>
+  <si>
+    <t>Lunatrius Core 1.1.2.21</t>
+  </si>
+  <si>
+    <t>Electro Magic Tools 1.2.7.7</t>
+  </si>
+  <si>
+    <t>Forestry 4.2.20.0</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.16</t>
+  </si>
+  <si>
+    <t>Thaumic Horizons 1.1.9.9</t>
+  </si>
+  <si>
+    <t>2.0.7.5更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1819,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3352,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J380"/>
+  <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3365,24 +3475,26 @@
     <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3398,8 +3510,16 @@
         <v>452</v>
       </c>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3415,8 +3535,16 @@
         <v>440</v>
       </c>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="O7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3426,8 +3554,12 @@
       <c r="G8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3449,8 +3581,20 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3464,8 +3608,16 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3479,8 +3631,12 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3498,8 +3654,14 @@
         <v>360</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3513,8 +3675,14 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3530,8 +3698,16 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3547,8 +3723,20 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3564,8 +3752,20 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3581,8 +3781,20 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3598,8 +3810,20 @@
       <c r="J18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3615,8 +3839,20 @@
       <c r="J19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3632,8 +3868,20 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="P20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3649,8 +3897,20 @@
       <c r="J21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3666,8 +3926,20 @@
       <c r="J22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3683,8 +3955,20 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -3696,15 +3980,39 @@
       <c r="J24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="P24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3712,15 +4020,27 @@
         <v>370</v>
       </c>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O26" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O27" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3728,8 +4048,14 @@
         <v>371</v>
       </c>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O28" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3737,8 +4063,14 @@
         <v>372</v>
       </c>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O29" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3746,73 +4078,103 @@
         <v>373</v>
       </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O30" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O31" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O32" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O33" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O34" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -3820,22 +4182,22 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>192</v>
       </c>
